--- a/data/datasets.xlsx
+++ b/data/datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3965C2-921D-4C36-9319-F7BEEFD259B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA884F5D-0990-3E4C-9C60-695C0DB8D330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3030" windowWidth="29490" windowHeight="17970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>On request</t>
   </si>
   <si>
-    <t>PARADISE R package for analysis of Rar Kidney disease dataset (private)</t>
-  </si>
-  <si>
     <t>scRNA-seq expression app</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>scRNA-seq data from Immunity paper 2023</t>
+  </si>
+  <si>
+    <t>PARADISE R package for analysis of  Kidney disease dataset (private)</t>
   </si>
 </sst>
 </file>
@@ -452,18 +452,18 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="139.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="139.5" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -497,7 +497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -511,9 +511,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -528,9 +528,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -545,9 +545,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -562,9 +562,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -579,61 +579,61 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
     </row>
   </sheetData>

--- a/data/datasets.xlsx
+++ b/data/datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA884F5D-0990-3E4C-9C60-695C0DB8D330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64427AE3-CB9B-704B-AE7C-778B5C7E357D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>with</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>PARADISE R package for analysis of  Kidney disease dataset (private)</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE261424</t>
+  </si>
+  <si>
+    <t>scRNA-seq data from Allergy paper 2024</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -580,8 +586,21 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="D8" s="2"/>
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>2024</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -639,8 +658,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{8F3F6FD2-CEFD-45EA-9724-D6EB9C32DD9B}"/>
+    <hyperlink ref="E8" r:id="rId2" tooltip="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE261424" xr:uid="{60978830-72A1-6D4C-9596-04ABE24EEB8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>